--- a/ReadExcelFile.xlsx
+++ b/ReadExcelFile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Minh Chánh\Tui\learning\asp.net\Practice\MinhChanh\EmailMarketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 01\Desktop\MinhChanh\EmailMarketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2217FFC-08BF-4A25-BFA4-3DB8EADB3211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,31 +35,31 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Ngoc Minh</t>
-  </si>
-  <si>
-    <t>ngocsminh5577@gmail.com</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>Minh Chanh</t>
-  </si>
-  <si>
-    <t>0468191090@caothang.edu.vn</t>
-  </si>
-  <si>
     <t>Au Chanh</t>
   </si>
   <si>
-    <t>auminhchanh99@gmail.com</t>
+    <t>minh minh</t>
+  </si>
+  <si>
+    <t>ngocminh77@gmail.com</t>
+  </si>
+  <si>
+    <t>Chanh</t>
+  </si>
+  <si>
+    <t>0468191099@caothang.edu.vn</t>
+  </si>
+  <si>
+    <t>auminhchanh11@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,20 +381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,31 +405,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -441,9 +440,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2E115219-3EED-4CFE-A12F-103CF1D19669}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FDA58CAE-9783-4C70-9927-AED65D62B6F5}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{831D4B1B-FA76-4AB4-8C7F-BAFB807A9442}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
